--- a/batch-development-assistance/ジョブ実行シェルスクリプト自動生成設定.xlsx
+++ b/batch-development-assistance/ジョブ実行シェルスクリプト自動生成設定.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6EF881-9B89-4EFD-B034-C33287989B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0931DB-6528-4F15-8CC6-42F210E5B07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="828" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="記述方法・サンプル" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="201">
   <si>
     <t>システムプロパティ設定</t>
     <rPh sb="9" eb="11">
@@ -946,13 +946,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>spring.batch.job.names</t>
-  </si>
-  <si>
-    <t>spring.batch.job.names</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アプリケーション用</t>
     <rPh sb="8" eb="9">
       <t>ヨウ</t>
@@ -974,10 +967,6 @@
     <rPh sb="26" eb="27">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        ・spring.batch.job.names</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1200,9 +1189,6 @@
   </si>
   <si>
     <t>--app-prop=appValue</t>
-  </si>
-  <si>
-    <t>--app-prop=appValue</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1225,6 +1211,14 @@
   </si>
   <si>
     <t>BA10301</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spring.batch.job.name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        ・spring.batch.job.name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4520,7 +4514,7 @@
               <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
-            <a:t>spring.batch.job.names</a:t>
+            <a:t>spring.batch.job.name</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -5133,20 +5127,23 @@
             </a:rPr>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPts val="1200"/>
             </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7907,27 +7904,27 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B1:O81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="4" customWidth="1"/>
     <col min="6" max="6" width="18" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="22.75" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.875" style="4" customWidth="1"/>
-    <col min="13" max="15" width="12.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.6328125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="22.7265625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="16.90625" style="4" customWidth="1"/>
+    <col min="13" max="15" width="12.08984375" style="4" customWidth="1"/>
     <col min="16" max="17" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:15" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7936,12 +7933,12 @@
       <c r="B3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="2:15" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" ht="10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" ht="10.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
@@ -7969,7 +7966,7 @@
       <c r="N5" s="11"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="2:15" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" ht="10.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
@@ -7992,16 +7989,16 @@
         <v>15</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="20"/>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="2:15" ht="32.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:15" ht="29" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="22" t="s">
         <v>26</v>
       </c>
@@ -8031,7 +8028,7 @@
         <v>26</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M7" s="31" t="s">
         <v>149</v>
@@ -8043,7 +8040,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" ht="10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="22" t="s">
         <v>20</v>
       </c>
@@ -8071,7 +8068,7 @@
       <c r="N8" s="42"/>
       <c r="O8" s="43"/>
     </row>
-    <row r="9" spans="2:15" s="3" customFormat="1" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:15" s="3" customFormat="1" ht="10" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
@@ -8088,7 +8085,7 @@
       <c r="J20" s="44"/>
       <c r="K20" s="46"/>
     </row>
-    <row r="21" spans="2:11" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="47"/>
       <c r="C21" s="48" t="s">
         <v>32</v>
@@ -8239,7 +8236,7 @@
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" s="47"/>
       <c r="C32" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -8253,7 +8250,7 @@
     <row r="33" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B33" s="47"/>
       <c r="C33" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -8267,7 +8264,7 @@
     <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B34" s="47"/>
       <c r="C34" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -8281,7 +8278,7 @@
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B35" s="47"/>
       <c r="C35" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -8351,7 +8348,7 @@
     <row r="40" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B40" s="47"/>
       <c r="C40" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -8407,7 +8404,7 @@
     <row r="44" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B44" s="47"/>
       <c r="C44" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -8463,49 +8460,49 @@
     <row r="48" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B48" s="47"/>
       <c r="C48" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K48" s="49"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B49" s="47"/>
       <c r="C49" s="4" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="K49" s="49"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B50" s="47"/>
       <c r="C50" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K50" s="49"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B51" s="47"/>
       <c r="C51" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K51" s="49"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B52" s="47"/>
       <c r="C52" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K52" s="49"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B53" s="47"/>
       <c r="C53" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K53" s="49"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B54" s="47"/>
       <c r="C54" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -8519,14 +8516,14 @@
     <row r="55" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B55" s="47"/>
       <c r="C55" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K55" s="49"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B56" s="47"/>
       <c r="C56" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K56" s="49"/>
     </row>
@@ -8805,7 +8802,7 @@
         <v>137</v>
       </c>
       <c r="G76" s="52" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H76" s="52" t="s">
         <v>136</v>
@@ -8936,20 +8933,20 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>84</v>
       </c>
@@ -8994,10 +8991,10 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D7" s="77">
         <v>0</v>
@@ -9020,10 +9017,10 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D8" s="77">
         <v>1</v>
@@ -9080,19 +9077,19 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>121</v>
       </c>
@@ -9137,7 +9134,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C7" s="76" t="s">
         <v>130</v>
@@ -9200,19 +9197,19 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>122</v>
       </c>
@@ -9257,7 +9254,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C7" s="76" t="s">
         <v>131</v>
@@ -9317,23 +9314,23 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="59" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11" s="59" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -9371,17 +9368,17 @@
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="64" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F6" s="64"/>
       <c r="G6" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" s="64" t="s">
         <v>152</v>
-      </c>
-      <c r="H6" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="I6" s="64" t="s">
-        <v>154</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="65"/>
@@ -9397,20 +9394,20 @@
         <v>31</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F7" s="67"/>
       <c r="G7" s="68" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H7" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="I7" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="J7" s="70" t="s">
         <v>194</v>
-      </c>
-      <c r="I7" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="J7" s="70" t="s">
-        <v>198</v>
       </c>
       <c r="K7" s="70"/>
     </row>
@@ -9450,24 +9447,24 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:M9"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="4" customWidth="1"/>
-    <col min="5" max="7" width="8.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="35.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="15.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" style="4" customWidth="1"/>
+    <col min="5" max="7" width="8.7265625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="35.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.26953125" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:13" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9508,21 +9505,21 @@
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="64" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F6" s="64"/>
       <c r="G6" s="64"/>
       <c r="H6" s="64" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J6" s="64" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K6" s="64" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="65"/>
@@ -9535,27 +9532,27 @@
         <v>28</v>
       </c>
       <c r="D7" s="71" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
       <c r="H7" s="68" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I7" s="78">
         <v>120000</v>
       </c>
       <c r="J7" s="67" t="s">
-        <v>194</v>
-      </c>
-      <c r="K7" s="69" t="s">
-        <v>195</v>
+        <v>191</v>
+      </c>
+      <c r="K7" s="80" t="s">
+        <v>192</v>
       </c>
       <c r="L7" s="70" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M7" s="70"/>
     </row>
@@ -9601,22 +9598,22 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -9651,19 +9648,19 @@
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="65"/>
@@ -9676,25 +9673,25 @@
         <v>30</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G7" s="78">
         <v>60000</v>
       </c>
       <c r="H7" s="67" t="s">
-        <v>194</v>
-      </c>
-      <c r="I7" s="69" t="s">
-        <v>195</v>
+        <v>191</v>
+      </c>
+      <c r="I7" s="80" t="s">
+        <v>192</v>
       </c>
       <c r="J7" s="70" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K7" s="70"/>
     </row>
@@ -9724,7 +9721,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -9737,20 +9734,20 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" style="4" customWidth="1"/>
-    <col min="8" max="9" width="15.25" style="4" customWidth="1"/>
+    <col min="8" max="9" width="15.26953125" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
@@ -9798,7 +9795,7 @@
         <v>124</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D7" s="77" t="s">
         <v>107</v>
@@ -9824,19 +9821,19 @@
         <v>125</v>
       </c>
       <c r="C8" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8" s="22" t="s">
+      <c r="G8" s="22" t="s">
         <v>183</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="H8" s="22">
         <v>0</v>
@@ -9881,18 +9878,18 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:7" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
@@ -9925,7 +9922,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C7" s="76" t="s">
         <v>126</v>
@@ -9971,18 +9968,18 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:7" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
@@ -10011,7 +10008,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C7" s="76" t="s">
         <v>127</v>
@@ -10053,16 +10050,16 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="4" customWidth="1"/>
-    <col min="4" max="6" width="26.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" style="4" customWidth="1"/>
+    <col min="4" max="6" width="26.90625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:7" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
@@ -10095,7 +10092,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C7" s="76" t="s">
         <v>128</v>
@@ -10141,19 +10138,19 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="28.125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="15.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.08984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="28.08984375" style="4" customWidth="1"/>
+    <col min="8" max="9" width="15.26953125" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>83</v>
       </c>
@@ -10190,7 +10187,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C7" s="76" t="s">
         <v>129</v>
